--- a/관리산출물/관리산출물PMP PSP/PSP/김예지/신수동크러셔_psp_20150531_김예지.xlsx
+++ b/관리산출물/관리산출물PMP PSP/PSP/김예지/신수동크러셔_psp_20150531_김예지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeoj\Desktop\융종설\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home\관리산출물\관리산출물PMP PSP\PSP\김예지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770ED7E-AE24-42E0-90FF-9A35EEE85C6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE18A33-FACA-4D12-B036-7B2EE228DBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김예지" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Table C16Time Recording Log</t>
   </si>
@@ -216,11 +216,27 @@
     <t>데이터 연계방안 리서치</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>2019.11.20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발회의</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.19</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 로드맵 및 업무분담 회의</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
@@ -360,22 +376,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C80AD6F9-171C-4C48-A97C-A1B3DD26C776}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -591,7 +635,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A16" sqref="A16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -600,12 +644,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -682,7 +726,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="11">
@@ -697,12 +741,12 @@
       <c r="E7" s="9">
         <v>100</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="11">
@@ -722,7 +766,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="11">
@@ -737,12 +781,12 @@
       <c r="E9" s="12">
         <v>75</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="11">
@@ -757,12 +801,12 @@
       <c r="E10" s="12">
         <v>80</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="11">
@@ -777,12 +821,12 @@
       <c r="E11" s="12">
         <v>75</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="11">
@@ -797,12 +841,12 @@
       <c r="E12" s="12">
         <v>90</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="11">
@@ -817,7 +861,7 @@
       <c r="E13" s="12">
         <v>180</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -838,20 +882,44 @@
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1330</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1445</v>
+      </c>
+      <c r="D16" s="12">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12">
+        <v>95</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2200</v>
+      </c>
+      <c r="D17" s="12">
+        <v>60</v>
+      </c>
+      <c r="E17" s="12">
+        <v>180</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
